--- a/rpg-supplement/checklist.xlsx
+++ b/rpg-supplement/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/rpg-supplement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5192E52D-959F-FC44-9C9C-91972A0D731F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615EEE9D-2EBE-4041-8E1B-ABD591A11E36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="460" windowWidth="26740" windowHeight="15780" xr2:uid="{9B052A42-0AF6-3940-AAC8-833B2D975BE1}"/>
   </bookViews>
@@ -59,9 +59,6 @@
     <t>RPG Character Book &lt;Hero of the Fantasy World&gt;</t>
   </si>
   <si>
-    <t>Shakaishisoha</t>
-  </si>
-  <si>
     <t>character_book.jpg</t>
   </si>
   <si>
@@ -75,6 +72,9 @@
   </si>
   <si>
     <t>RPG City Book &lt;City of Fantasy World&gt;</t>
+  </si>
+  <si>
+    <t>Shakaishisosha</t>
   </si>
 </sst>
 </file>
@@ -438,7 +438,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -480,13 +480,13 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -494,19 +494,19 @@
         <v>1994</v>
       </c>
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
